--- a/análisis/Casos de Uso Narrativos/CDUN - (Administrar Inventario) Quitar producto del inventario..xlsx
+++ b/análisis/Casos de Uso Narrativos/CDUN - (Administrar Inventario) Quitar producto del inventario..xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\synchostel\análisis\Casos de Uso Narrativos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SyncHostel\synchostel\análisis\Casos de Uso Narrativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -517,14 +517,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Caso de uso</t>
   </si>
   <si>
-    <t>&lt;&lt; id &gt;&gt;</t>
-  </si>
-  <si>
     <t>Actores</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
     <t>Admin, Hostel Worker</t>
   </si>
   <si>
-    <t>Primario, Esencial</t>
-  </si>
-  <si>
     <t>Existencia previa del producto dentro del invetario del sistema.</t>
   </si>
   <si>
@@ -657,10 +651,19 @@
     <t>Media</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>Alta</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Iván Zamorano</t>
+  </si>
+  <si>
+    <t>Sin implementar</t>
+  </si>
+  <si>
+    <t>Primario | Esencial</t>
   </si>
 </sst>
 </file>
@@ -1132,6 +1135,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1164,10 +1175,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1177,10 +1184,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1464,7 +1467,7 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H2"/>
+      <selection activeCell="E4" sqref="E4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1481,401 +1484,403 @@
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11">
+        <v>42143</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="39">
-        <v>42143</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="B10" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
+      <c r="B11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="B13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
+      <c r="B14" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
+      <c r="B16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="13">
+        <v>3</v>
+      </c>
+      <c r="G18" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="37"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="44">
-        <v>2</v>
-      </c>
-      <c r="C18" s="41" t="s">
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
+        <v>4</v>
+      </c>
+      <c r="C19" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44">
-        <v>3</v>
-      </c>
-      <c r="G18" s="41" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="13">
+        <v>5</v>
+      </c>
+      <c r="G19" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="44">
-        <v>4</v>
-      </c>
-      <c r="C19" s="41" t="s">
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
+        <v>6</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44">
-        <v>5</v>
-      </c>
-      <c r="G19" s="41" t="s">
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="12">
+        <v>7</v>
+      </c>
+      <c r="G20" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="40">
-        <v>6</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="40">
-        <v>7</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
     </row>
     <row r="21" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>8</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="33"/>
+      <c r="C21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
+      <c r="B23" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
     </row>
     <row r="26" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
     </row>
     <row r="27" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="3" t="s">
+      <c r="G29" s="22"/>
+      <c r="H29" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="33"/>
+      <c r="I31" s="37"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="30"/>
+      <c r="B33" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
     </row>
     <row r="34" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="44">
